--- a/public/uploads/Task 1.xlsx
+++ b/public/uploads/Task 1.xlsx
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color</t>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color</t>
   </si>
   <si>
     <t xml:space="preserve">Zenith</t>
@@ -334,7 +334,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
